--- a/results/pixel_wise_LR_results.xlsx
+++ b/results/pixel_wise_LR_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,6 +557,32 @@
         <v>14380</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2.933623100106197</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>scaled 10 rivers</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>256</v>
+      </c>
+      <c r="F6" t="n">
+        <v>83192</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/pixel_wise_LR_results.xlsx
+++ b/results/pixel_wise_LR_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,6 +583,32 @@
         <v>83192</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2.933623100106197</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>scaled 13 rivers</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>256</v>
+      </c>
+      <c r="F7" t="n">
+        <v>83192</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
